--- a/Test case senarios and cases.xlsx
+++ b/Test case senarios and cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5e9e4a94bd11b896/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5E9E4A94BD11B896/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{FBBCAF93-5446-4B85-BBAE-7F6FA83379C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{15F1B1DB-99AB-4F64-AB20-F5C87B471CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45668169-DDD1-4469-AC75-0A1AFC796B7B}"/>
   <bookViews>
-    <workbookView xWindow="13728" yWindow="0" windowWidth="9408" windowHeight="13056" xr2:uid="{745372D8-5C23-4B10-AC39-30316ADA0124}"/>
+    <workbookView xWindow="4056" yWindow="1524" windowWidth="17280" windowHeight="9420" xr2:uid="{745372D8-5C23-4B10-AC39-30316ADA0124}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,6 +400,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -722,13 +726,13 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="43" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:C3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="50.21875" customWidth="1"/>
     <col min="3" max="3" width="130.44140625" customWidth="1"/>
     <col min="4" max="4" width="139.77734375" customWidth="1"/>
     <col min="5" max="5" width="151.88671875" customWidth="1"/>
